--- a/data/trans_orig/P32-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P32-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECFD042A-5770-4C69-9752-7E9B24805BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D31F13A-8B8C-457C-B203-DC272B376269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5922E221-FC49-4C52-A22F-8E855C4CF4FD}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1490C7F6-8237-4AEC-ADB6-2034FDE8BDBE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="273">
   <si>
     <t>Población según si han pensado que deberían beber menos en 2007 (Tasa respuesta: 41,78%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>2,99%</t>
   </si>
   <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
     <t>1,6%</t>
   </si>
   <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
+    <t>4,5%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,30 +107,30 @@
     <t>97,01%</t>
   </si>
   <si>
-    <t>94,93%</t>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
   </si>
   <si>
     <t>98,4%</t>
   </si>
   <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
@@ -140,55 +140,55 @@
     <t>2,81%</t>
   </si>
   <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
   </si>
   <si>
     <t>1,7%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
   </si>
   <si>
     <t>2,44%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
   </si>
   <si>
     <t>97,19%</t>
   </si>
   <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
   </si>
   <si>
     <t>98,3%</t>
   </si>
   <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
   </si>
   <si>
     <t>97,56%</t>
   </si>
   <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,97 +197,97 @@
     <t>2,19%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
   </si>
   <si>
     <t>97,81%</t>
   </si>
   <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
   </si>
   <si>
     <t>99,47%</t>
   </si>
   <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
   </si>
   <si>
     <t>2,74%</t>
   </si>
   <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
   </si>
   <si>
     <t>1,48%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
   </si>
   <si>
     <t>2,33%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
   </si>
   <si>
     <t>97,26%</t>
   </si>
   <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
   </si>
   <si>
     <t>98,52%</t>
   </si>
   <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
   </si>
   <si>
     <t>97,67%</t>
   </si>
   <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -299,571 +299,565 @@
     <t>6,13%</t>
   </si>
   <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
   </si>
   <si>
     <t>1,33%</t>
   </si>
   <si>
+    <t>3,57%</t>
+  </si>
+  <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>6,64%</t>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
   </si>
   <si>
     <t>93,87%</t>
   </si>
   <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
   </si>
   <si>
     <t>98,67%</t>
   </si>
   <si>
+    <t>96,43%</t>
+  </si>
+  <si>
     <t>95,35%</t>
   </si>
   <si>
-    <t>93,36%</t>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
   </si>
   <si>
     <t>7,23%</t>
   </si>
   <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
   </si>
   <si>
     <t>2,32%</t>
   </si>
   <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
     <t>1,32%</t>
   </si>
   <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
   </si>
   <si>
     <t>98,68%</t>
   </si>
   <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>Población según si han pensado que deberían beber menos en 2015 (Tasa respuesta: 45,47%)</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>Población según si han pensado que deberían beber menos en 2023 (Tasa respuesta: 31,92%)</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
   </si>
   <si>
     <t>6,09%</t>
   </si>
   <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
   </si>
   <si>
     <t>93,91%</t>
   </si>
   <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>Población según si han pensado que deberían beber menos en 2015 (Tasa respuesta: 45,47%)</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
   </si>
   <si>
     <t>6,44%</t>
   </si>
   <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
   </si>
   <si>
     <t>93,56%</t>
   </si>
   <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>Población según si han pensado que deberían beber menos en 2023 (Tasa respuesta: 31,92%)</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
   </si>
   <si>
     <t>96,07%</t>
   </si>
   <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
   </si>
   <si>
     <t>2,75%</t>
   </si>
   <si>
-    <t>4,33%</t>
+    <t>4,17%</t>
   </si>
   <si>
     <t>4,84%</t>
   </si>
   <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
   </si>
   <si>
     <t>97,25%</t>
   </si>
   <si>
-    <t>95,67%</t>
+    <t>95,83%</t>
   </si>
   <si>
     <t>95,16%</t>
   </si>
   <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
+    <t>94,18%</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{097A9820-2000-4CE9-A536-E5BAB6338AC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7472918B-FDBD-4AE2-95EE-E6261335856B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1739,7 +1733,7 @@
         <v>8710</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>56</v>
@@ -1790,7 +1784,7 @@
         <v>534990</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>63</v>
@@ -2026,7 +2020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BAE5CD9-5FCE-4D7E-9998-742046551E6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87539EFE-B731-4F1E-8510-A73E9DF0EDD8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2171,7 +2165,7 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="M4" s="7">
         <v>31</v>
@@ -2180,13 +2174,13 @@
         <v>34439</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2201,13 +2195,13 @@
         <v>480235</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H5" s="7">
         <v>209</v>
@@ -2216,10 +2210,10 @@
         <v>226087</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -2231,13 +2225,13 @@
         <v>706323</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2302,16 +2296,16 @@
         <v>82</v>
       </c>
       <c r="D7" s="7">
-        <v>86611</v>
+        <v>86612</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -2320,13 +2314,13 @@
         <v>13874</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M7" s="7">
         <v>95</v>
@@ -2335,13 +2329,13 @@
         <v>100485</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2356,13 +2350,13 @@
         <v>1110532</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H8" s="7">
         <v>538</v>
@@ -2371,13 +2365,13 @@
         <v>583183</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M8" s="7">
         <v>1585</v>
@@ -2386,13 +2380,13 @@
         <v>1693716</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,7 +2398,7 @@
         <v>1129</v>
       </c>
       <c r="D9" s="7">
-        <v>1197143</v>
+        <v>1197144</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2460,13 +2454,13 @@
         <v>19648</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -2475,13 +2469,13 @@
         <v>5776</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -2490,13 +2484,13 @@
         <v>25424</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2511,13 +2505,13 @@
         <v>306548</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="H11" s="7">
         <v>198</v>
@@ -2526,13 +2520,13 @@
         <v>218831</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="M11" s="7">
         <v>486</v>
@@ -2541,13 +2535,13 @@
         <v>525379</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2615,13 +2609,13 @@
         <v>137642</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -2630,13 +2624,13 @@
         <v>22706</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="M13" s="7">
         <v>147</v>
@@ -2645,13 +2639,13 @@
         <v>160348</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2666,13 +2660,13 @@
         <v>1897315</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H14" s="7">
         <v>945</v>
@@ -2681,13 +2675,13 @@
         <v>1028102</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M14" s="7">
         <v>2731</v>
@@ -2696,13 +2690,13 @@
         <v>2925418</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2777,7 +2771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9E2AA8-118C-4797-879C-C7793E10F630}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C18FE8-BDCA-448F-A4E7-6DC583253568}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2794,7 +2788,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2901,13 +2895,13 @@
         <v>19066</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2916,13 +2910,13 @@
         <v>1104</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -2931,13 +2925,13 @@
         <v>20170</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2952,13 +2946,13 @@
         <v>337874</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H5" s="7">
         <v>126</v>
@@ -2967,10 +2961,10 @@
         <v>134146</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -2982,13 +2976,13 @@
         <v>472020</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3056,13 +3050,13 @@
         <v>63191</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>86</v>
+        <v>171</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -3071,13 +3065,13 @@
         <v>26395</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="M7" s="7">
         <v>83</v>
@@ -3086,13 +3080,13 @@
         <v>89586</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>173</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3107,13 +3101,13 @@
         <v>1189965</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>93</v>
+        <v>179</v>
       </c>
       <c r="H8" s="7">
         <v>674</v>
@@ -3122,13 +3116,13 @@
         <v>700413</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M8" s="7">
         <v>1797</v>
@@ -3137,13 +3131,13 @@
         <v>1890378</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>179</v>
+        <v>118</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>180</v>
+        <v>116</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,13 +3205,13 @@
         <v>21982</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -3226,13 +3220,13 @@
         <v>9801</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -3241,13 +3235,13 @@
         <v>31783</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3262,13 +3256,13 @@
         <v>357438</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H11" s="7">
         <v>257</v>
@@ -3277,13 +3271,13 @@
         <v>272408</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M11" s="7">
         <v>584</v>
@@ -3292,13 +3286,13 @@
         <v>629846</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,13 +3360,13 @@
         <v>104239</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -3381,13 +3375,13 @@
         <v>37300</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M13" s="7">
         <v>129</v>
@@ -3396,13 +3390,13 @@
         <v>141539</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3417,13 +3411,13 @@
         <v>1885278</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H14" s="7">
         <v>1057</v>
@@ -3432,13 +3426,13 @@
         <v>1106966</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M14" s="7">
         <v>2846</v>
@@ -3447,13 +3441,13 @@
         <v>2992245</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>179</v>
+        <v>118</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,7 +3522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0026FD4D-59AF-43E8-9517-A9D53A15837A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18029983-59E6-4207-B0B6-8C9D5AE2EF6C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3545,7 +3539,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3652,13 +3646,13 @@
         <v>19180</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3667,13 +3661,13 @@
         <v>903</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M4" s="7">
         <v>25</v>
@@ -3682,13 +3676,13 @@
         <v>20083</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>119</v>
+        <v>224</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>220</v>
+        <v>86</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3703,13 +3697,13 @@
         <v>236265</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="H5" s="7">
         <v>121</v>
@@ -3718,10 +3712,10 @@
         <v>73516</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -3733,13 +3727,13 @@
         <v>309781</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>127</v>
+        <v>231</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>228</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3807,13 +3801,13 @@
         <v>57008</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>230</v>
+        <v>158</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -3822,13 +3816,13 @@
         <v>16038</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>232</v>
+        <v>70</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M7" s="7">
         <v>72</v>
@@ -3837,13 +3831,13 @@
         <v>73045</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>236</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3858,13 +3852,13 @@
         <v>947882</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>240</v>
+        <v>166</v>
       </c>
       <c r="H8" s="7">
         <v>698</v>
@@ -3873,13 +3867,13 @@
         <v>639412</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M8" s="7">
         <v>1563</v>
@@ -3888,13 +3882,13 @@
         <v>1587295</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>245</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>246</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3962,13 +3956,13 @@
         <v>22582</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -3977,13 +3971,13 @@
         <v>10290</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
@@ -3992,13 +3986,13 @@
         <v>32873</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,7 +4007,7 @@
         <v>328004</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>175</v>
+        <v>253</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>254</v>
@@ -4043,7 +4037,7 @@
         <v>579286</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>259</v>
@@ -4135,7 +4129,7 @@
         <v>263</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>264</v>
@@ -4150,10 +4144,10 @@
         <v>265</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4168,13 +4162,13 @@
         <v>1512151</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H14" s="7">
         <v>1166</v>
@@ -4183,28 +4177,28 @@
         <v>964211</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>271</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="M14" s="7">
         <v>2645</v>
       </c>
       <c r="N14" s="7">
-        <v>2476363</v>
+        <v>2476362</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>273</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>274</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,7 +4240,7 @@
         <v>2779</v>
       </c>
       <c r="N15" s="7">
-        <v>2602364</v>
+        <v>2602363</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P32-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P32-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D31F13A-8B8C-457C-B203-DC272B376269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E268C6F-A7D3-42CD-8AF7-C8F5D6F8BE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1490C7F6-8237-4AEC-ADB6-2034FDE8BDBE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FC7986AA-A0E8-484F-88F1-8BE50D817D15}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -77,10 +77,10 @@
     <t>2,99%</t>
   </si>
   <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
   </si>
   <si>
     <t>1,86%</t>
@@ -89,739 +89,739 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>5,53%</t>
+    <t>6,12%</t>
   </si>
   <si>
     <t>2,69%</t>
   </si>
   <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
     <t>1,6%</t>
   </si>
   <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
   </si>
   <si>
     <t>98,4%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han pensado que deberían beber menos en 2012 (Tasa respuesta: 44,32%)</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>Población según si han pensado que deberían beber menos en 2016 (Tasa respuesta: 45,47%)</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>Población según si han pensado que deberían beber menos en 2023 (Tasa respuesta: 31,92%)</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
   </si>
   <si>
     <t>3,28%</t>
   </si>
   <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
   </si>
   <si>
     <t>96,72%</t>
   </si>
   <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han pensado que deberían beber menos en 2012 (Tasa respuesta: 44,32%)</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>Población según si han pensado que deberían beber menos en 2015 (Tasa respuesta: 45,47%)</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
   </si>
   <si>
     <t>5,37%</t>
   </si>
   <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
   </si>
   <si>
     <t>94,63%</t>
   </si>
   <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>Población según si han pensado que deberían beber menos en 2023 (Tasa respuesta: 31,92%)</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
     <t>92,19%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
   </si>
   <si>
     <t>4,96%</t>
@@ -1269,7 +1269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7472918B-FDBD-4AE2-95EE-E6261335856B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180572F9-CAC2-45E9-AAE7-CD4D96296B40}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1733,13 +1733,13 @@
         <v>8710</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1754,13 +1754,13 @@
         <v>342827</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>184</v>
@@ -1769,10 +1769,10 @@
         <v>192163</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -1784,13 +1784,13 @@
         <v>534990</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1858,13 +1858,13 @@
         <v>51489</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -1873,13 +1873,13 @@
         <v>13239</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>62</v>
@@ -1888,13 +1888,13 @@
         <v>64728</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1909,13 +1909,13 @@
         <v>1829415</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>862</v>
@@ -1924,13 +1924,13 @@
         <v>881343</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>2658</v>
@@ -1939,13 +1939,13 @@
         <v>2710758</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2001,7 +2001,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2020,7 +2020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87539EFE-B731-4F1E-8510-A73E9DF0EDD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BBFAD4-1E1E-433A-87D8-EF686B5D69C1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2037,7 +2037,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2144,13 +2144,13 @@
         <v>31383</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -2159,13 +2159,13 @@
         <v>3057</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M4" s="7">
         <v>31</v>
@@ -2174,13 +2174,13 @@
         <v>34439</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2195,13 +2195,13 @@
         <v>480235</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H5" s="7">
         <v>209</v>
@@ -2210,13 +2210,13 @@
         <v>226087</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="M5" s="7">
         <v>660</v>
@@ -2225,13 +2225,13 @@
         <v>706323</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2296,16 +2296,16 @@
         <v>82</v>
       </c>
       <c r="D7" s="7">
-        <v>86612</v>
+        <v>86611</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -2314,13 +2314,13 @@
         <v>13874</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M7" s="7">
         <v>95</v>
@@ -2329,13 +2329,13 @@
         <v>100485</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2350,13 +2350,13 @@
         <v>1110532</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H8" s="7">
         <v>538</v>
@@ -2365,13 +2365,13 @@
         <v>583183</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="M8" s="7">
         <v>1585</v>
@@ -2380,13 +2380,13 @@
         <v>1693716</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,7 +2398,7 @@
         <v>1129</v>
       </c>
       <c r="D9" s="7">
-        <v>1197144</v>
+        <v>1197143</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2454,13 +2454,13 @@
         <v>19648</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -2469,13 +2469,13 @@
         <v>5776</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -2484,13 +2484,13 @@
         <v>25424</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2505,13 +2505,13 @@
         <v>306548</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H11" s="7">
         <v>198</v>
@@ -2520,13 +2520,13 @@
         <v>218831</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M11" s="7">
         <v>486</v>
@@ -2535,7 +2535,7 @@
         <v>525379</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>135</v>
@@ -2609,13 +2609,13 @@
         <v>137642</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -2624,13 +2624,13 @@
         <v>22706</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M13" s="7">
         <v>147</v>
@@ -2639,13 +2639,13 @@
         <v>160348</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2660,13 +2660,13 @@
         <v>1897315</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H14" s="7">
         <v>945</v>
@@ -2675,13 +2675,13 @@
         <v>1028102</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M14" s="7">
         <v>2731</v>
@@ -2690,13 +2690,13 @@
         <v>2925418</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2752,7 +2752,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2771,7 +2771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C18FE8-BDCA-448F-A4E7-6DC583253568}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8BD0557-3280-47AB-9614-CCD348C18E11}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2788,7 +2788,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2895,13 +2895,13 @@
         <v>19066</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2910,13 +2910,13 @@
         <v>1104</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -2925,13 +2925,13 @@
         <v>20170</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2946,13 +2946,13 @@
         <v>337874</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H5" s="7">
         <v>126</v>
@@ -2961,7 +2961,7 @@
         <v>134146</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>166</v>
@@ -3080,13 +3080,13 @@
         <v>89586</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>107</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,13 +3101,13 @@
         <v>1189965</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H8" s="7">
         <v>674</v>
@@ -3116,13 +3116,13 @@
         <v>700413</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M8" s="7">
         <v>1797</v>
@@ -3131,13 +3131,13 @@
         <v>1890378</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>185</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>116</v>
+        <v>186</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,13 +3205,13 @@
         <v>21982</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -3220,13 +3220,13 @@
         <v>9801</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -3235,13 +3235,13 @@
         <v>31783</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,13 +3256,13 @@
         <v>357438</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="H11" s="7">
         <v>257</v>
@@ -3271,13 +3271,13 @@
         <v>272408</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M11" s="7">
         <v>584</v>
@@ -3286,13 +3286,13 @@
         <v>629846</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3360,13 +3360,13 @@
         <v>104239</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>203</v>
+        <v>88</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -3375,13 +3375,13 @@
         <v>37300</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M13" s="7">
         <v>129</v>
@@ -3390,13 +3390,13 @@
         <v>141539</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3411,13 +3411,13 @@
         <v>1885278</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>211</v>
+        <v>168</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>212</v>
+        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>1057</v>
@@ -3426,13 +3426,13 @@
         <v>1106966</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>213</v>
+        <v>150</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M14" s="7">
         <v>2846</v>
@@ -3441,13 +3441,13 @@
         <v>2992245</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>118</v>
+        <v>185</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,7 +3503,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3522,7 +3522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18029983-59E6-4207-B0B6-8C9D5AE2EF6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA51E08-65DE-41B1-B98C-9D02EF4FA4AD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3539,7 +3539,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3646,13 +3646,13 @@
         <v>19180</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>220</v>
+        <v>53</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3661,13 +3661,13 @@
         <v>903</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="M4" s="7">
         <v>25</v>
@@ -3676,13 +3676,13 @@
         <v>20083</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>224</v>
+        <v>145</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>86</v>
+        <v>219</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3697,13 +3697,13 @@
         <v>236265</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>228</v>
+        <v>60</v>
       </c>
       <c r="H5" s="7">
         <v>121</v>
@@ -3712,10 +3712,10 @@
         <v>73516</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -3727,13 +3727,13 @@
         <v>309781</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>231</v>
+        <v>153</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>95</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3801,13 +3801,13 @@
         <v>57008</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>158</v>
+        <v>228</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -3816,13 +3816,13 @@
         <v>16038</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>70</v>
+        <v>230</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="M7" s="7">
         <v>72</v>
@@ -3831,13 +3831,13 @@
         <v>73045</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>234</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,13 +3852,13 @@
         <v>947882</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>166</v>
+        <v>238</v>
       </c>
       <c r="H8" s="7">
         <v>698</v>
@@ -3867,13 +3867,13 @@
         <v>639412</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>78</v>
+        <v>239</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M8" s="7">
         <v>1563</v>
@@ -3882,13 +3882,13 @@
         <v>1587295</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,10 +3986,10 @@
         <v>32873</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>209</v>
+        <v>251</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>252</v>
@@ -4037,13 +4037,13 @@
         <v>579286</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>259</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,7 +4111,7 @@
         <v>98770</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>261</v>
@@ -4129,7 +4129,7 @@
         <v>263</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>264</v>
@@ -4162,7 +4162,7 @@
         <v>1512151</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>267</v>
@@ -4183,7 +4183,7 @@
         <v>270</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="M14" s="7">
         <v>2645</v>
@@ -4198,7 +4198,7 @@
         <v>272</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4254,7 +4254,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P32-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P32-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E268C6F-A7D3-42CD-8AF7-C8F5D6F8BE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{035DEB40-9A1E-488D-86DA-D5C387087E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FC7986AA-A0E8-484F-88F1-8BE50D817D15}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A334D31D-B8E7-4E3C-AE63-A7F48998574B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="275">
   <si>
     <t>Población según si han pensado que deberían beber menos en 2007 (Tasa respuesta: 41,78%)</t>
   </si>
@@ -71,16 +71,16 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>2,99%</t>
   </si>
   <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
   </si>
   <si>
     <t>1,86%</t>
@@ -89,16 +89,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,12%</t>
+    <t>6,47%</t>
   </si>
   <si>
     <t>2,69%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,16 +107,16 @@
     <t>97,01%</t>
   </si>
   <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
   </si>
   <si>
     <t>98,14%</t>
   </si>
   <si>
-    <t>93,88%</t>
+    <t>93,53%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -125,10 +125,10 @@
     <t>97,31%</t>
   </si>
   <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,16 +140,16 @@
     <t>2,81%</t>
   </si>
   <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
   </si>
   <si>
     <t>1,7%</t>
   </si>
   <si>
-    <t>0,76%</t>
+    <t>0,74%</t>
   </si>
   <si>
     <t>3,04%</t>
@@ -158,19 +158,19 @@
     <t>2,44%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
   </si>
   <si>
     <t>97,19%</t>
   </si>
   <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
   </si>
   <si>
     <t>98,3%</t>
@@ -179,16 +179,16 @@
     <t>96,96%</t>
   </si>
   <si>
-    <t>99,24%</t>
+    <t>99,26%</t>
   </si>
   <si>
     <t>97,56%</t>
   </si>
   <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,46 +197,40 @@
     <t>2,19%</t>
   </si>
   <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
+    <t>2,46%</t>
   </si>
   <si>
     <t>0,67%</t>
   </si>
   <si>
-    <t>3,2%</t>
+    <t>3,16%</t>
   </si>
   <si>
     <t>97,81%</t>
   </si>
   <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
   </si>
   <si>
     <t>99,47%</t>
   </si>
   <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
   </si>
   <si>
     <t>99,33%</t>
@@ -248,439 +242,445 @@
     <t>2,08%</t>
   </si>
   <si>
-    <t>3,58%</t>
+    <t>3,61%</t>
   </si>
   <si>
     <t>1,48%</t>
   </si>
   <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han pensado que deberían beber menos en 2012 (Tasa respuesta: 44,32%)</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>Población según si han pensado que deberían beber menos en 2016 (Tasa respuesta: 45,47%)</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
   </si>
   <si>
     <t>99,18%</t>
   </si>
   <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han pensado que deberían beber menos en 2012 (Tasa respuesta: 44,32%)</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
   </si>
   <si>
     <t>96,44%</t>
   </si>
   <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
   </si>
   <si>
     <t>3,26%</t>
   </si>
   <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
   </si>
   <si>
     <t>96,74%</t>
   </si>
   <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>Población según si han pensado que deberían beber menos en 2016 (Tasa respuesta: 45,47%)</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
   </si>
   <si>
     <t>Población según si han pensado que deberían beber menos en 2023 (Tasa respuesta: 31,92%)</t>
@@ -689,175 +689,181 @@
     <t>7,51%</t>
   </si>
   <si>
-    <t>11,52%</t>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
   </si>
   <si>
     <t>1,21%</t>
   </si>
   <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
   </si>
   <si>
     <t>92,49%</t>
   </si>
   <si>
-    <t>88,48%</t>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
   </si>
   <si>
     <t>98,79%</t>
   </si>
   <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
   </si>
   <si>
     <t>5,67%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
   </si>
   <si>
     <t>2,45%</t>
   </si>
   <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
   </si>
   <si>
     <t>4,4%</t>
   </si>
   <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
   </si>
   <si>
     <t>94,33%</t>
   </si>
   <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
   </si>
   <si>
     <t>97,55%</t>
   </si>
   <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
   </si>
   <si>
     <t>95,6%</t>
   </si>
   <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
   </si>
   <si>
     <t>3,93%</t>
   </si>
   <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
   </si>
   <si>
     <t>96,07%</t>
   </si>
   <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
   </si>
   <si>
     <t>2,75%</t>
   </si>
   <si>
-    <t>4,17%</t>
+    <t>4,33%</t>
   </si>
   <si>
     <t>4,84%</t>
   </si>
   <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
   </si>
   <si>
     <t>97,25%</t>
   </si>
   <si>
-    <t>95,83%</t>
+    <t>95,67%</t>
   </si>
   <si>
     <t>95,16%</t>
   </si>
   <si>
-    <t>94,18%</t>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180572F9-CAC2-45E9-AAE7-CD4D96296B40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16EA451-513A-4100-ABCA-BC77F28E5381}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1733,13 +1739,13 @@
         <v>8710</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1754,13 +1760,13 @@
         <v>342827</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>184</v>
@@ -1769,10 +1775,10 @@
         <v>192163</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -1784,13 +1790,13 @@
         <v>534990</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1858,13 +1864,13 @@
         <v>51489</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -1873,13 +1879,13 @@
         <v>13239</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>62</v>
@@ -1888,13 +1894,13 @@
         <v>64728</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1909,13 +1915,13 @@
         <v>1829415</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>862</v>
@@ -1924,13 +1930,13 @@
         <v>881343</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>2658</v>
@@ -1939,13 +1945,13 @@
         <v>2710758</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2001,7 +2007,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2020,7 +2026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BBFAD4-1E1E-433A-87D8-EF686B5D69C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536D44DC-4C43-4B31-AADF-7ED66230E718}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2037,7 +2043,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2144,13 +2150,13 @@
         <v>31383</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -2159,13 +2165,13 @@
         <v>3057</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="M4" s="7">
         <v>31</v>
@@ -2174,13 +2180,13 @@
         <v>34439</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2195,13 +2201,13 @@
         <v>480235</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H5" s="7">
         <v>209</v>
@@ -2210,13 +2216,13 @@
         <v>226087</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>660</v>
@@ -2225,13 +2231,13 @@
         <v>706323</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2299,13 +2305,13 @@
         <v>86611</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -2314,13 +2320,13 @@
         <v>13874</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="M7" s="7">
         <v>95</v>
@@ -2329,13 +2335,13 @@
         <v>100485</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2350,13 +2356,13 @@
         <v>1110532</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="H8" s="7">
         <v>538</v>
@@ -2365,13 +2371,13 @@
         <v>583183</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="M8" s="7">
         <v>1585</v>
@@ -2380,13 +2386,13 @@
         <v>1693716</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2454,13 +2460,13 @@
         <v>19648</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -2469,13 +2475,13 @@
         <v>5776</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -2484,13 +2490,13 @@
         <v>25424</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2505,13 +2511,13 @@
         <v>306548</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="H11" s="7">
         <v>198</v>
@@ -2520,13 +2526,13 @@
         <v>218831</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="M11" s="7">
         <v>486</v>
@@ -2535,13 +2541,13 @@
         <v>525379</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2609,13 +2615,13 @@
         <v>137642</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -2624,13 +2630,13 @@
         <v>22706</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M13" s="7">
         <v>147</v>
@@ -2639,13 +2645,13 @@
         <v>160348</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2660,13 +2666,13 @@
         <v>1897315</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H14" s="7">
         <v>945</v>
@@ -2675,13 +2681,13 @@
         <v>1028102</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="M14" s="7">
         <v>2731</v>
@@ -2690,13 +2696,13 @@
         <v>2925418</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2752,7 +2758,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2771,7 +2777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8BD0557-3280-47AB-9614-CCD348C18E11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435F36E9-31B3-4BC7-AC32-F39D70A78676}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2788,7 +2794,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2895,13 +2901,13 @@
         <v>19066</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2910,13 +2916,13 @@
         <v>1104</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -2925,13 +2931,13 @@
         <v>20170</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2946,13 +2952,13 @@
         <v>337874</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H5" s="7">
         <v>126</v>
@@ -2961,10 +2967,10 @@
         <v>134146</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -2976,13 +2982,13 @@
         <v>472020</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,13 +3056,13 @@
         <v>63191</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>171</v>
+        <v>86</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -3065,13 +3071,13 @@
         <v>26395</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="M7" s="7">
         <v>83</v>
@@ -3080,13 +3086,13 @@
         <v>89586</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,13 +3107,13 @@
         <v>1189965</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>181</v>
+        <v>93</v>
       </c>
       <c r="H8" s="7">
         <v>674</v>
@@ -3116,13 +3122,13 @@
         <v>700413</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>1797</v>
@@ -3131,13 +3137,13 @@
         <v>1890378</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,13 +3211,13 @@
         <v>21982</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -3220,13 +3226,13 @@
         <v>9801</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -3235,13 +3241,13 @@
         <v>31783</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,13 +3262,13 @@
         <v>357438</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>257</v>
@@ -3271,13 +3277,13 @@
         <v>272408</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>584</v>
@@ -3286,13 +3292,13 @@
         <v>629846</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3360,13 +3366,13 @@
         <v>104239</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>88</v>
+        <v>201</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -3375,13 +3381,13 @@
         <v>37300</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>203</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M13" s="7">
         <v>129</v>
@@ -3390,13 +3396,13 @@
         <v>141539</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3411,13 +3417,13 @@
         <v>1885278</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>1057</v>
@@ -3426,13 +3432,13 @@
         <v>1106966</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M14" s="7">
         <v>2846</v>
@@ -3441,10 +3447,10 @@
         <v>2992245</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>158</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>213</v>
@@ -3503,7 +3509,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3522,7 +3528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA51E08-65DE-41B1-B98C-9D02EF4FA4AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C423EA-0A5F-45C2-8630-5A07D305D897}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3649,10 +3655,10 @@
         <v>215</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>53</v>
+        <v>216</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3661,13 +3667,13 @@
         <v>903</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M4" s="7">
         <v>25</v>
@@ -3676,13 +3682,13 @@
         <v>20083</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3697,13 +3703,13 @@
         <v>236265</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>60</v>
+        <v>224</v>
       </c>
       <c r="H5" s="7">
         <v>121</v>
@@ -3712,10 +3718,10 @@
         <v>73516</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -3727,13 +3733,13 @@
         <v>309781</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3801,13 +3807,13 @@
         <v>57008</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -3816,13 +3822,13 @@
         <v>16038</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M7" s="7">
         <v>72</v>
@@ -3831,13 +3837,13 @@
         <v>73045</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,13 +3858,13 @@
         <v>947882</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H8" s="7">
         <v>698</v>
@@ -3867,13 +3873,13 @@
         <v>639412</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M8" s="7">
         <v>1563</v>
@@ -3882,13 +3888,13 @@
         <v>1587295</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3956,13 +3962,13 @@
         <v>22582</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>245</v>
+        <v>167</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -3971,13 +3977,13 @@
         <v>10290</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
@@ -3986,13 +3992,13 @@
         <v>32873</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>251</v>
+        <v>170</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>207</v>
+        <v>252</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4007,7 +4013,7 @@
         <v>328004</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>253</v>
+        <v>175</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>254</v>
@@ -4037,13 +4043,13 @@
         <v>579286</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,7 +4117,7 @@
         <v>98770</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>261</v>
@@ -4129,7 +4135,7 @@
         <v>263</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>264</v>
@@ -4144,10 +4150,10 @@
         <v>265</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>171</v>
+        <v>266</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4162,13 +4168,13 @@
         <v>1512151</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H14" s="7">
         <v>1166</v>
@@ -4177,28 +4183,28 @@
         <v>964211</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="M14" s="7">
         <v>2645</v>
       </c>
       <c r="N14" s="7">
-        <v>2476362</v>
+        <v>2476363</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>181</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,7 +4246,7 @@
         <v>2779</v>
       </c>
       <c r="N15" s="7">
-        <v>2602363</v>
+        <v>2602364</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4254,7 +4260,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P32-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P32-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{035DEB40-9A1E-488D-86DA-D5C387087E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1317AA24-8633-4A61-8C55-FE9C887A93D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A334D31D-B8E7-4E3C-AE63-A7F48998574B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{53B021F3-0035-4DF3-8FFA-3455C8099DCC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="283">
   <si>
     <t>Población según si han pensado que deberían beber menos en 2007 (Tasa respuesta: 41,78%)</t>
   </si>
@@ -686,184 +686,208 @@
     <t>Población según si han pensado que deberían beber menos en 2023 (Tasa respuesta: 31,92%)</t>
   </si>
   <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
   </si>
   <si>
     <t>1,27%</t>
   </si>
   <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
   </si>
   <si>
     <t>98,73%</t>
   </si>
   <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
   </si>
   <si>
     <t>3,72%</t>
   </si>
   <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
   </si>
   <si>
     <t>96,28%</t>
   </si>
   <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16EA451-513A-4100-ABCA-BC77F28E5381}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EC310A-C1D4-4BF1-B5C3-5285E3042523}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1927,7 +1951,7 @@
         <v>862</v>
       </c>
       <c r="I14" s="7">
-        <v>881343</v>
+        <v>881342</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>77</v>
@@ -1978,7 +2002,7 @@
         <v>874</v>
       </c>
       <c r="I15" s="7">
-        <v>894582</v>
+        <v>894581</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2026,7 +2050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536D44DC-4C43-4B31-AADF-7ED66230E718}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{920C6034-36AC-4B4A-BF0A-6DF089099E14}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2693,7 +2717,7 @@
         <v>2731</v>
       </c>
       <c r="N14" s="7">
-        <v>2925418</v>
+        <v>2925417</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>146</v>
@@ -2744,7 +2768,7 @@
         <v>2878</v>
       </c>
       <c r="N15" s="7">
-        <v>3085766</v>
+        <v>3085765</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2777,7 +2801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435F36E9-31B3-4BC7-AC32-F39D70A78676}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7E6987-6B9B-447F-A2D3-AB103982AF01}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3104,7 +3128,7 @@
         <v>1123</v>
       </c>
       <c r="D8" s="7">
-        <v>1189965</v>
+        <v>1189966</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>174</v>
@@ -3155,7 +3179,7 @@
         <v>1180</v>
       </c>
       <c r="D9" s="7">
-        <v>1253156</v>
+        <v>1253157</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3429,7 +3453,7 @@
         <v>1057</v>
       </c>
       <c r="I14" s="7">
-        <v>1106966</v>
+        <v>1106967</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>210</v>
@@ -3480,7 +3504,7 @@
         <v>1093</v>
       </c>
       <c r="I15" s="7">
-        <v>1144266</v>
+        <v>1144267</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3528,7 +3552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C423EA-0A5F-45C2-8630-5A07D305D897}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1B7EE9-11F5-4488-A9E3-4F1346159EBD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3649,7 +3673,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="7">
-        <v>19180</v>
+        <v>19005</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>215</v>
@@ -3664,7 +3688,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>903</v>
+        <v>854</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>218</v>
@@ -3679,16 +3703,16 @@
         <v>25</v>
       </c>
       <c r="N4" s="7">
-        <v>20083</v>
+        <v>19859</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>119</v>
+        <v>220</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,28 +3724,28 @@
         <v>292</v>
       </c>
       <c r="D5" s="7">
-        <v>236265</v>
+        <v>224952</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H5" s="7">
         <v>121</v>
       </c>
       <c r="I5" s="7">
-        <v>73516</v>
+        <v>66479</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -3730,16 +3754,16 @@
         <v>413</v>
       </c>
       <c r="N5" s="7">
-        <v>309781</v>
+        <v>291431</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>127</v>
+        <v>228</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,7 +3775,7 @@
         <v>315</v>
       </c>
       <c r="D6" s="7">
-        <v>255445</v>
+        <v>243957</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3766,7 +3790,7 @@
         <v>123</v>
       </c>
       <c r="I6" s="7">
-        <v>74419</v>
+        <v>67333</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3781,7 +3805,7 @@
         <v>438</v>
       </c>
       <c r="N6" s="7">
-        <v>329864</v>
+        <v>311290</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3804,46 +3828,46 @@
         <v>52</v>
       </c>
       <c r="D7" s="7">
-        <v>57008</v>
+        <v>56661</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
       </c>
       <c r="I7" s="7">
-        <v>16038</v>
+        <v>14472</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M7" s="7">
         <v>72</v>
       </c>
       <c r="N7" s="7">
-        <v>73045</v>
+        <v>71132</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,46 +3879,46 @@
         <v>865</v>
       </c>
       <c r="D8" s="7">
-        <v>947882</v>
+        <v>928232</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H8" s="7">
         <v>698</v>
       </c>
       <c r="I8" s="7">
-        <v>639412</v>
+        <v>693978</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M8" s="7">
         <v>1563</v>
       </c>
       <c r="N8" s="7">
-        <v>1587295</v>
+        <v>1622211</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,7 +3930,7 @@
         <v>917</v>
       </c>
       <c r="D9" s="7">
-        <v>1004890</v>
+        <v>984893</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3921,7 +3945,7 @@
         <v>718</v>
       </c>
       <c r="I9" s="7">
-        <v>655450</v>
+        <v>708450</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3936,7 +3960,7 @@
         <v>1635</v>
       </c>
       <c r="N9" s="7">
-        <v>1660340</v>
+        <v>1693343</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3959,46 +3983,46 @@
         <v>25</v>
       </c>
       <c r="D10" s="7">
-        <v>22582</v>
+        <v>22069</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
       </c>
       <c r="I10" s="7">
-        <v>10290</v>
+        <v>9161</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
       </c>
       <c r="N10" s="7">
-        <v>32873</v>
+        <v>31231</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>170</v>
+        <v>254</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,46 +4034,46 @@
         <v>322</v>
       </c>
       <c r="D11" s="7">
-        <v>328004</v>
+        <v>322184</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H11" s="7">
         <v>347</v>
       </c>
       <c r="I11" s="7">
-        <v>251283</v>
+        <v>237009</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M11" s="7">
         <v>669</v>
       </c>
       <c r="N11" s="7">
-        <v>579286</v>
+        <v>559192</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>177</v>
+        <v>262</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,7 +4085,7 @@
         <v>347</v>
       </c>
       <c r="D12" s="7">
-        <v>350586</v>
+        <v>344253</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4076,7 +4100,7 @@
         <v>359</v>
       </c>
       <c r="I12" s="7">
-        <v>261573</v>
+        <v>246170</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4091,7 +4115,7 @@
         <v>706</v>
       </c>
       <c r="N12" s="7">
-        <v>612159</v>
+        <v>590423</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4114,46 +4138,46 @@
         <v>100</v>
       </c>
       <c r="D13" s="7">
-        <v>98770</v>
+        <v>97735</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>85</v>
+        <v>265</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
       </c>
       <c r="I13" s="7">
-        <v>27231</v>
+        <v>24487</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>35</v>
+        <v>269</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="M13" s="7">
         <v>134</v>
       </c>
       <c r="N13" s="7">
-        <v>126001</v>
+        <v>122222</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,46 +4189,46 @@
         <v>1479</v>
       </c>
       <c r="D14" s="7">
-        <v>1512151</v>
+        <v>1475369</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>91</v>
+        <v>274</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="H14" s="7">
         <v>1166</v>
       </c>
       <c r="I14" s="7">
-        <v>964211</v>
+        <v>997466</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>44</v>
+        <v>279</v>
       </c>
       <c r="M14" s="7">
         <v>2645</v>
       </c>
       <c r="N14" s="7">
-        <v>2476363</v>
+        <v>2472835</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,7 +4240,7 @@
         <v>1579</v>
       </c>
       <c r="D15" s="7">
-        <v>1610921</v>
+        <v>1573104</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4231,7 +4255,7 @@
         <v>1200</v>
       </c>
       <c r="I15" s="7">
-        <v>991442</v>
+        <v>1021953</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4246,7 +4270,7 @@
         <v>2779</v>
       </c>
       <c r="N15" s="7">
-        <v>2602364</v>
+        <v>2595057</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
